--- a/prepdata/8m/icu_comment_8.xlsx
+++ b/prepdata/8m/icu_comment_8.xlsx
@@ -14,23 +14,20 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="126">
   <si>
     <t>name</t>
   </si>
   <si>
-    <t>不可日</t>
-  </si>
-  <si>
-    <t>希望日</t>
-  </si>
-  <si>
     <t>accept</t>
   </si>
   <si>
     <t>reject</t>
   </si>
   <si>
+    <t>species</t>
+  </si>
+  <si>
     <t>ICU勤務希望についての備考</t>
   </si>
   <si>
@@ -193,6 +190,42 @@
     <t>髙木菜々美</t>
   </si>
   <si>
+    <t>8月6日 ,8月7日 ,8月8日 ,8月13日 ,8月14日 ,8月15日 ,8月20日 ,8月21日 ,8月22日 ,8月27日 ,8月28日 ,8月29日</t>
+  </si>
+  <si>
+    <t>8月1日 ,8月2日 ,8月3日 ,8月4日 ,8月4日 ,8月5日 ,8月6日 ,8月8日 ,8月9日 ,8月10日 ,8月11日 ,8月11日 ,8月12日 ,8月12日 ,8月13日 ,8月15日 ,8月16日 ,8月19日 ,8月20日 ,8月22日 ,8月23日 ,8月26日 ,8月27日 ,8月29日 ,8月30日</t>
+  </si>
+  <si>
+    <t>8月2日 ,8月5日 ,8月16日 ,8月18日 ,8月18日 ,8月19日 ,8月26日</t>
+  </si>
+  <si>
+    <t>8月1日 ,8月2日 ,8月3日 ,8月3日 ,8月4日 ,8月4日 ,8月6日 ,8月7日 ,8月8日 ,8月9日 ,8月11日 ,8月11日 ,8月12日 ,8月13日 ,8月14日 ,8月15日 ,8月16日 ,8月17日 ,8月17日 ,8月18日 ,8月18日 ,8月20日 ,8月21日 ,8月22日 ,8月23日 ,8月24日 ,8月24日 ,8月25日 ,8月25日 ,8月27日 ,8月28日 ,8月29日 ,8月30日</t>
+  </si>
+  <si>
+    <t>8月2日 ,8月3日 ,8月3日 ,8月4日 ,8月4日 ,8月5日 ,8月6日 ,8月7日 ,8月9日 ,8月10日 ,8月10日 ,8月11日 ,8月11日 ,8月12日 ,8月12日 ,8月13日 ,8月16日 ,8月17日 ,8月17日 ,8月18日 ,8月18日 ,8月19日 ,8月20日 ,8月21日 ,8月23日 ,8月24日 ,8月24日 ,8月25日 ,8月25日 ,8月26日 ,8月27日 ,8月28日 ,8月30日 ,8月31日 ,8月31日</t>
+  </si>
+  <si>
+    <t>8月1日 ,8月4日 ,8月5日 ,8月7日 ,8月8日 ,8月9日 ,8月26日 ,8月28日 ,8月29日 ,8月30日</t>
+  </si>
+  <si>
+    <t>8月1日 ,8月2日 ,8月3日 ,8月3日 ,8月4日 ,8月4日 ,8月5日 ,8月8日 ,8月9日 ,8月10日 ,8月10日 ,8月11日 ,8月11日 ,8月12日 ,8月12日 ,8月15日 ,8月22日 ,8月23日 ,8月26日 ,8月29日 ,8月30日</t>
+  </si>
+  <si>
+    <t>8月2日 ,8月3日 ,8月9日 ,8月10日 ,8月12日</t>
+  </si>
+  <si>
+    <t>8月3日 ,8月4日 ,8月17日 ,8月18日 ,8月31日</t>
+  </si>
+  <si>
+    <t>8月3日 ,8月4日 ,8月4日 ,8月5日 ,8月6日 ,8月7日 ,8月8日 ,8月11日 ,8月12日 ,8月12日 ,8月13日 ,8月14日 ,8月15日 ,8月19日 ,8月20日 ,8月21日 ,8月22日 ,8月23日 ,8月24日 ,8月24日 ,8月25日 ,8月25日 ,8月26日 ,8月27日 ,8月28日 ,8月29日 ,8月30日 ,8月31日 ,8月31日</t>
+  </si>
+  <si>
+    <t>8月2日 ,8月9日 ,8月16日</t>
+  </si>
+  <si>
+    <t>8月6日 ,8月13日</t>
+  </si>
+  <si>
     <t>8月4日 ,8月4日 ,8月5日 ,8月7日 ,8月9日 ,8月10日 ,8月10日 ,8月11日 ,8月11日 ,8月12日 ,8月12日 ,8月14日 ,8月15日 ,8月16日 ,8月17日 ,8月17日 ,8月18日 ,8月18日 ,8月19日 ,8月21日 ,8月23日 ,8月24日 ,8月24日 ,8月26日 ,8月28日 ,8月31日 ,8月31日</t>
   </si>
   <si>
@@ -340,40 +373,7 @@
     <t>8月3日 ,8月3日 ,8月10日 ,8月10日 ,8月11日 ,8月11日 ,8月31日 ,8月31日</t>
   </si>
   <si>
-    <t>8月6日 ,8月7日 ,8月8日 ,8月13日 ,8月14日 ,8月15日 ,8月20日 ,8月21日 ,8月22日 ,8月27日 ,8月28日 ,8月29日</t>
-  </si>
-  <si>
-    <t>8月1日 ,8月2日 ,8月3日 ,8月4日 ,8月4日 ,8月5日 ,8月6日 ,8月8日 ,8月9日 ,8月10日 ,8月11日 ,8月11日 ,8月12日 ,8月12日 ,8月13日 ,8月15日 ,8月16日 ,8月19日 ,8月20日 ,8月22日 ,8月23日 ,8月26日 ,8月27日 ,8月29日 ,8月30日</t>
-  </si>
-  <si>
-    <t>8月2日 ,8月5日 ,8月16日 ,8月18日 ,8月18日 ,8月19日 ,8月26日</t>
-  </si>
-  <si>
-    <t>8月1日 ,8月2日 ,8月3日 ,8月3日 ,8月4日 ,8月4日 ,8月6日 ,8月7日 ,8月8日 ,8月9日 ,8月11日 ,8月11日 ,8月12日 ,8月13日 ,8月14日 ,8月15日 ,8月16日 ,8月17日 ,8月17日 ,8月18日 ,8月18日 ,8月20日 ,8月21日 ,8月22日 ,8月23日 ,8月24日 ,8月24日 ,8月25日 ,8月25日 ,8月27日 ,8月28日 ,8月29日 ,8月30日</t>
-  </si>
-  <si>
-    <t>8月2日 ,8月3日 ,8月3日 ,8月4日 ,8月4日 ,8月5日 ,8月6日 ,8月7日 ,8月9日 ,8月10日 ,8月10日 ,8月11日 ,8月11日 ,8月12日 ,8月12日 ,8月13日 ,8月16日 ,8月17日 ,8月17日 ,8月18日 ,8月18日 ,8月19日 ,8月20日 ,8月21日 ,8月23日 ,8月24日 ,8月24日 ,8月25日 ,8月25日 ,8月26日 ,8月27日 ,8月28日 ,8月30日 ,8月31日 ,8月31日</t>
-  </si>
-  <si>
-    <t>8月1日 ,8月4日 ,8月5日 ,8月7日 ,8月8日 ,8月9日 ,8月26日 ,8月28日 ,8月29日 ,8月30日</t>
-  </si>
-  <si>
-    <t>8月1日 ,8月2日 ,8月3日 ,8月3日 ,8月4日 ,8月4日 ,8月5日 ,8月8日 ,8月9日 ,8月10日 ,8月10日 ,8月11日 ,8月11日 ,8月12日 ,8月12日 ,8月15日 ,8月22日 ,8月23日 ,8月26日 ,8月29日 ,8月30日</t>
-  </si>
-  <si>
-    <t>8月2日 ,8月3日 ,8月9日 ,8月10日 ,8月12日</t>
-  </si>
-  <si>
-    <t>8月3日 ,8月4日 ,8月17日 ,8月18日 ,8月31日</t>
-  </si>
-  <si>
-    <t>8月3日 ,8月4日 ,8月4日 ,8月5日 ,8月6日 ,8月7日 ,8月8日 ,8月11日 ,8月12日 ,8月12日 ,8月13日 ,8月14日 ,8月15日 ,8月19日 ,8月20日 ,8月21日 ,8月22日 ,8月23日 ,8月24日 ,8月24日 ,8月25日 ,8月25日 ,8月26日 ,8月27日 ,8月28日 ,8月29日 ,8月30日 ,8月31日 ,8月31日</t>
-  </si>
-  <si>
-    <t>8月2日 ,8月9日 ,8月16日</t>
-  </si>
-  <si>
-    <t>8月6日 ,8月13日</t>
+    <t>icu</t>
   </si>
   <si>
     <t>8月15-21日夏季休暇、金曜午後外勤です。</t>
@@ -749,13 +749,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G54"/>
+  <dimension ref="A1:F54"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:6">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -771,828 +771,795 @@
       <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C2" t="s">
-        <v>59</v>
-      </c>
-      <c r="F2" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
+        <v>5</v>
+      </c>
+      <c r="D2" t="s">
+        <v>70</v>
+      </c>
+      <c r="E2" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" t="s">
-        <v>60</v>
-      </c>
-      <c r="F3" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
+        <v>6</v>
+      </c>
+      <c r="D3" t="s">
+        <v>71</v>
+      </c>
+      <c r="E3" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4" t="s">
-        <v>61</v>
-      </c>
-      <c r="F4" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
+        <v>7</v>
+      </c>
+      <c r="D4" t="s">
+        <v>72</v>
+      </c>
+      <c r="E4" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C5" t="s">
-        <v>62</v>
-      </c>
-      <c r="F5" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7">
+        <v>8</v>
+      </c>
+      <c r="D5" t="s">
+        <v>73</v>
+      </c>
+      <c r="E5" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C6" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="D6" t="s">
-        <v>108</v>
+        <v>74</v>
       </c>
       <c r="E6" t="s">
-        <v>108</v>
-      </c>
-      <c r="F6" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>11</v>
-      </c>
-      <c r="C7" t="s">
-        <v>64</v>
-      </c>
-      <c r="F7" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
+        <v>10</v>
+      </c>
+      <c r="D7" t="s">
+        <v>75</v>
+      </c>
+      <c r="E7" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C8" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="D8" t="s">
-        <v>109</v>
+        <v>76</v>
       </c>
       <c r="E8" t="s">
-        <v>109</v>
-      </c>
-      <c r="F8" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>13</v>
-      </c>
-      <c r="C9" t="s">
-        <v>66</v>
-      </c>
-      <c r="F9" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
+        <v>12</v>
+      </c>
+      <c r="D9" t="s">
+        <v>77</v>
+      </c>
+      <c r="E9" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>14</v>
-      </c>
-      <c r="C10" t="s">
-        <v>67</v>
-      </c>
-      <c r="F10" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
+        <v>13</v>
+      </c>
+      <c r="D10" t="s">
+        <v>78</v>
+      </c>
+      <c r="E10" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>15</v>
-      </c>
-      <c r="C11" t="s">
-        <v>68</v>
-      </c>
-      <c r="F11" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7">
+        <v>14</v>
+      </c>
+      <c r="D11" t="s">
+        <v>79</v>
+      </c>
+      <c r="E11" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>16</v>
-      </c>
-      <c r="C12" t="s">
-        <v>69</v>
-      </c>
-      <c r="F12" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7">
+        <v>15</v>
+      </c>
+      <c r="D12" t="s">
+        <v>80</v>
+      </c>
+      <c r="E12" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C13" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="D13" t="s">
-        <v>110</v>
+        <v>81</v>
       </c>
       <c r="E13" t="s">
-        <v>110</v>
-      </c>
-      <c r="F13" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>18</v>
-      </c>
-      <c r="C14" t="s">
-        <v>71</v>
-      </c>
-      <c r="F14" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7">
+        <v>17</v>
+      </c>
+      <c r="D14" t="s">
+        <v>82</v>
+      </c>
+      <c r="E14" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>19</v>
-      </c>
-      <c r="C15" t="s">
-        <v>72</v>
+        <v>18</v>
+      </c>
+      <c r="D15" t="s">
+        <v>83</v>
+      </c>
+      <c r="E15" t="s">
+        <v>119</v>
       </c>
       <c r="F15" t="s">
-        <v>72</v>
-      </c>
-      <c r="G15" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="16" spans="1:7">
+    <row r="16" spans="1:6">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>20</v>
-      </c>
-      <c r="C16" t="s">
-        <v>73</v>
+        <v>19</v>
+      </c>
+      <c r="D16" t="s">
+        <v>84</v>
+      </c>
+      <c r="E16" t="s">
+        <v>119</v>
       </c>
       <c r="F16" t="s">
-        <v>73</v>
-      </c>
-      <c r="G16" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="17" spans="1:7">
+    <row r="17" spans="1:6">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>21</v>
-      </c>
-      <c r="C17" t="s">
-        <v>74</v>
-      </c>
-      <c r="F17" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7">
+        <v>20</v>
+      </c>
+      <c r="D17" t="s">
+        <v>85</v>
+      </c>
+      <c r="E17" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>22</v>
-      </c>
-      <c r="C18" t="s">
-        <v>75</v>
-      </c>
-      <c r="F18" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7">
+        <v>21</v>
+      </c>
+      <c r="D18" t="s">
+        <v>86</v>
+      </c>
+      <c r="E18" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C19" t="s">
-        <v>76</v>
+        <v>61</v>
       </c>
       <c r="D19" t="s">
-        <v>111</v>
+        <v>87</v>
       </c>
       <c r="E19" t="s">
-        <v>111</v>
-      </c>
-      <c r="F19" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C20" t="s">
-        <v>77</v>
+        <v>62</v>
       </c>
       <c r="D20" t="s">
-        <v>112</v>
+        <v>88</v>
       </c>
       <c r="E20" t="s">
-        <v>112</v>
-      </c>
-      <c r="F20" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>25</v>
-      </c>
-      <c r="C21" t="s">
-        <v>78</v>
-      </c>
-      <c r="F21" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7">
+        <v>24</v>
+      </c>
+      <c r="D21" t="s">
+        <v>89</v>
+      </c>
+      <c r="E21" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>26</v>
-      </c>
-      <c r="C22" t="s">
-        <v>79</v>
-      </c>
-      <c r="F22" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7">
+        <v>25</v>
+      </c>
+      <c r="D22" t="s">
+        <v>90</v>
+      </c>
+      <c r="E22" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>27</v>
-      </c>
-      <c r="C23" t="s">
-        <v>80</v>
+        <v>26</v>
+      </c>
+      <c r="D23" t="s">
+        <v>91</v>
+      </c>
+      <c r="E23" t="s">
+        <v>119</v>
       </c>
       <c r="F23" t="s">
-        <v>80</v>
-      </c>
-      <c r="G23" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="24" spans="1:7">
+    <row r="24" spans="1:6">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>28</v>
-      </c>
-      <c r="C24" t="s">
-        <v>81</v>
-      </c>
-      <c r="F24" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7">
+        <v>27</v>
+      </c>
+      <c r="D24" t="s">
+        <v>92</v>
+      </c>
+      <c r="E24" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>29</v>
-      </c>
-      <c r="C25" t="s">
-        <v>82</v>
-      </c>
-      <c r="F25" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7">
+        <v>28</v>
+      </c>
+      <c r="D25" t="s">
+        <v>93</v>
+      </c>
+      <c r="E25" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
       <c r="A26" s="1">
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>30</v>
-      </c>
-      <c r="C26" t="s">
-        <v>83</v>
-      </c>
-      <c r="F26" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7">
+        <v>29</v>
+      </c>
+      <c r="D26" t="s">
+        <v>94</v>
+      </c>
+      <c r="E26" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
       <c r="A27" s="1">
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>31</v>
-      </c>
-      <c r="C27" t="s">
-        <v>84</v>
-      </c>
-      <c r="F27" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7">
+        <v>30</v>
+      </c>
+      <c r="D27" t="s">
+        <v>95</v>
+      </c>
+      <c r="E27" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
       <c r="A28" s="1">
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C28" t="s">
-        <v>85</v>
+        <v>63</v>
       </c>
       <c r="D28" t="s">
-        <v>113</v>
+        <v>96</v>
       </c>
       <c r="E28" t="s">
-        <v>113</v>
-      </c>
-      <c r="F28" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
       <c r="A29" s="1">
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C29" t="s">
-        <v>86</v>
+        <v>64</v>
       </c>
       <c r="D29" t="s">
-        <v>114</v>
+        <v>97</v>
       </c>
       <c r="E29" t="s">
-        <v>114</v>
-      </c>
-      <c r="F29" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
       <c r="A30" s="1">
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>34</v>
-      </c>
-      <c r="C30" t="s">
-        <v>87</v>
-      </c>
-      <c r="F30" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7">
+        <v>33</v>
+      </c>
+      <c r="D30" t="s">
+        <v>98</v>
+      </c>
+      <c r="E30" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
       <c r="A31" s="1">
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>35</v>
-      </c>
-      <c r="C31" t="s">
-        <v>88</v>
-      </c>
-      <c r="F31" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7">
+        <v>34</v>
+      </c>
+      <c r="D31" t="s">
+        <v>99</v>
+      </c>
+      <c r="E31" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6">
       <c r="A32" s="1">
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>36</v>
-      </c>
-      <c r="C32" t="s">
-        <v>89</v>
-      </c>
-      <c r="F32" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7">
+        <v>35</v>
+      </c>
+      <c r="D32" t="s">
+        <v>100</v>
+      </c>
+      <c r="E32" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6">
       <c r="A33" s="1">
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>37</v>
-      </c>
-      <c r="C33" t="s">
-        <v>90</v>
-      </c>
-      <c r="F33" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7">
+        <v>36</v>
+      </c>
+      <c r="D33" t="s">
+        <v>101</v>
+      </c>
+      <c r="E33" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6">
       <c r="A34" s="1">
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>38</v>
-      </c>
-      <c r="C34" t="s">
-        <v>91</v>
-      </c>
-      <c r="F34" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7">
+        <v>37</v>
+      </c>
+      <c r="D34" t="s">
+        <v>102</v>
+      </c>
+      <c r="E34" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6">
       <c r="A35" s="1">
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>39</v>
-      </c>
-      <c r="C35" t="s">
-        <v>92</v>
-      </c>
-      <c r="F35" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7">
+        <v>38</v>
+      </c>
+      <c r="D35" t="s">
+        <v>103</v>
+      </c>
+      <c r="E35" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6">
       <c r="A36" s="1">
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C36" t="s">
-        <v>93</v>
+        <v>65</v>
       </c>
       <c r="D36" t="s">
-        <v>115</v>
+        <v>104</v>
       </c>
       <c r="E36" t="s">
-        <v>115</v>
-      </c>
-      <c r="F36" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6">
       <c r="A37" s="1">
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>41</v>
-      </c>
-      <c r="D37" t="s">
-        <v>116</v>
+        <v>40</v>
+      </c>
+      <c r="C37" t="s">
+        <v>66</v>
       </c>
       <c r="E37" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6">
       <c r="A38" s="1">
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>42</v>
-      </c>
-      <c r="C38" t="s">
-        <v>94</v>
-      </c>
-      <c r="F38" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7">
+        <v>41</v>
+      </c>
+      <c r="D38" t="s">
+        <v>105</v>
+      </c>
+      <c r="E38" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6">
       <c r="A39" s="1">
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>43</v>
-      </c>
-      <c r="C39" t="s">
-        <v>95</v>
+        <v>42</v>
+      </c>
+      <c r="D39" t="s">
+        <v>106</v>
+      </c>
+      <c r="E39" t="s">
+        <v>119</v>
       </c>
       <c r="F39" t="s">
-        <v>95</v>
-      </c>
-      <c r="G39" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="40" spans="1:7">
+    <row r="40" spans="1:6">
       <c r="A40" s="1">
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>44</v>
-      </c>
-      <c r="C40" t="s">
-        <v>96</v>
-      </c>
-      <c r="F40" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7">
+        <v>43</v>
+      </c>
+      <c r="D40" t="s">
+        <v>107</v>
+      </c>
+      <c r="E40" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6">
       <c r="A41" s="1">
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>45</v>
-      </c>
-      <c r="C41" t="s">
-        <v>97</v>
-      </c>
-      <c r="F41" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7">
+        <v>44</v>
+      </c>
+      <c r="D41" t="s">
+        <v>108</v>
+      </c>
+      <c r="E41" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6">
       <c r="A42" s="1">
         <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>46</v>
-      </c>
-      <c r="C42" t="s">
-        <v>98</v>
-      </c>
-      <c r="F42" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7">
+        <v>45</v>
+      </c>
+      <c r="D42" t="s">
+        <v>109</v>
+      </c>
+      <c r="E42" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6">
       <c r="A43" s="1">
         <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>47</v>
-      </c>
-      <c r="C43" t="s">
-        <v>99</v>
-      </c>
-      <c r="F43" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7">
+        <v>46</v>
+      </c>
+      <c r="D43" t="s">
+        <v>110</v>
+      </c>
+      <c r="E43" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6">
       <c r="A44" s="1">
         <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>48</v>
-      </c>
-      <c r="C44" t="s">
-        <v>100</v>
-      </c>
-      <c r="F44" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7">
+        <v>47</v>
+      </c>
+      <c r="D44" t="s">
+        <v>111</v>
+      </c>
+      <c r="E44" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6">
       <c r="A45" s="1">
         <v>43</v>
       </c>
       <c r="B45" t="s">
-        <v>49</v>
-      </c>
-      <c r="C45" t="s">
-        <v>101</v>
-      </c>
-      <c r="F45" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="46" spans="1:7">
+        <v>48</v>
+      </c>
+      <c r="D45" t="s">
+        <v>112</v>
+      </c>
+      <c r="E45" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6">
       <c r="A46" s="1">
         <v>44</v>
       </c>
       <c r="B46" t="s">
-        <v>50</v>
-      </c>
-      <c r="C46" t="s">
-        <v>102</v>
-      </c>
-      <c r="F46" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7">
+        <v>49</v>
+      </c>
+      <c r="D46" t="s">
+        <v>113</v>
+      </c>
+      <c r="E46" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6">
       <c r="A47" s="1">
         <v>45</v>
       </c>
       <c r="B47" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C47" t="s">
-        <v>103</v>
+        <v>67</v>
       </c>
       <c r="D47" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="E47" t="s">
-        <v>117</v>
-      </c>
-      <c r="F47" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6">
       <c r="A48" s="1">
         <v>46</v>
       </c>
       <c r="B48" t="s">
-        <v>52</v>
-      </c>
-      <c r="C48" t="s">
-        <v>104</v>
-      </c>
-      <c r="F48" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7">
+        <v>51</v>
+      </c>
+      <c r="D48" t="s">
+        <v>115</v>
+      </c>
+      <c r="E48" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6">
       <c r="A49" s="1">
         <v>47</v>
       </c>
       <c r="B49" t="s">
-        <v>53</v>
-      </c>
-      <c r="C49" t="s">
-        <v>73</v>
+        <v>52</v>
+      </c>
+      <c r="D49" t="s">
+        <v>84</v>
+      </c>
+      <c r="E49" t="s">
+        <v>119</v>
       </c>
       <c r="F49" t="s">
-        <v>73</v>
-      </c>
-      <c r="G49" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="50" spans="1:7">
+    <row r="50" spans="1:6">
       <c r="A50" s="1">
         <v>48</v>
       </c>
       <c r="B50" t="s">
-        <v>54</v>
-      </c>
-      <c r="C50" t="s">
-        <v>105</v>
-      </c>
-      <c r="F50" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7">
+        <v>53</v>
+      </c>
+      <c r="D50" t="s">
+        <v>116</v>
+      </c>
+      <c r="E50" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6">
       <c r="A51" s="1">
         <v>49</v>
       </c>
       <c r="B51" t="s">
-        <v>55</v>
-      </c>
-      <c r="C51" t="s">
-        <v>73</v>
-      </c>
-      <c r="F51" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7">
+        <v>54</v>
+      </c>
+      <c r="D51" t="s">
+        <v>84</v>
+      </c>
+      <c r="E51" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6">
       <c r="A52" s="1">
         <v>50</v>
       </c>
       <c r="B52" t="s">
-        <v>56</v>
-      </c>
-      <c r="D52" t="s">
-        <v>118</v>
+        <v>55</v>
+      </c>
+      <c r="C52" t="s">
+        <v>68</v>
       </c>
       <c r="E52" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="53" spans="1:7">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6">
       <c r="A53" s="1">
         <v>51</v>
       </c>
       <c r="B53" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C53" t="s">
-        <v>106</v>
+        <v>69</v>
       </c>
       <c r="D53" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="E53" t="s">
         <v>119</v>
       </c>
       <c r="F53" t="s">
-        <v>106</v>
-      </c>
-      <c r="G53" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="54" spans="1:7">
+    <row r="54" spans="1:6">
       <c r="A54" s="1">
         <v>52</v>
       </c>
       <c r="B54" t="s">
-        <v>58</v>
-      </c>
-      <c r="C54" t="s">
-        <v>107</v>
-      </c>
-      <c r="F54" t="s">
-        <v>107</v>
+        <v>57</v>
+      </c>
+      <c r="D54" t="s">
+        <v>118</v>
+      </c>
+      <c r="E54" t="s">
+        <v>119</v>
       </c>
     </row>
   </sheetData>

--- a/prepdata/8m/icu_comment_8.xlsx
+++ b/prepdata/8m/icu_comment_8.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="127">
   <si>
     <t>name</t>
   </si>
@@ -31,33 +31,120 @@
     <t>ICU勤務希望についての備考</t>
   </si>
   <si>
+    <t>髙木菜々美</t>
+  </si>
+  <si>
+    <t>福井梓穂</t>
+  </si>
+  <si>
+    <t>佐久間一也</t>
+  </si>
+  <si>
+    <t>岩崎文美</t>
+  </si>
+  <si>
+    <t>先崎光</t>
+  </si>
+  <si>
+    <t>石井真央</t>
+  </si>
+  <si>
+    <t>岡村真伊</t>
+  </si>
+  <si>
+    <t>吉村梨沙</t>
+  </si>
+  <si>
+    <t>谷岡友則</t>
+  </si>
+  <si>
+    <t>野上創生</t>
+  </si>
+  <si>
+    <t>鈴木徹志郎</t>
+  </si>
+  <si>
+    <t>松原龍輔</t>
+  </si>
+  <si>
+    <t>熊木聡美</t>
+  </si>
+  <si>
+    <t>吉田博道</t>
+  </si>
+  <si>
+    <t>織部峻太郎</t>
+  </si>
+  <si>
+    <t>平井智大</t>
+  </si>
+  <si>
+    <t>伊藤国秋</t>
+  </si>
+  <si>
+    <t>勝俣敬寛</t>
+  </si>
+  <si>
+    <t>佐川偲</t>
+  </si>
+  <si>
+    <t>星貴文</t>
+  </si>
+  <si>
+    <t>川瀬咲</t>
+  </si>
+  <si>
+    <t>東條誠也</t>
+  </si>
+  <si>
+    <t>茅島敦人</t>
+  </si>
+  <si>
+    <t>青木康浩</t>
+  </si>
+  <si>
+    <t>里見良輔</t>
+  </si>
+  <si>
+    <t>鈴木勝也</t>
+  </si>
+  <si>
+    <t>藤村慶子</t>
+  </si>
+  <si>
+    <t>脇坂悠介</t>
+  </si>
+  <si>
+    <t>長谷川華子</t>
+  </si>
+  <si>
+    <t>籠尾壽哉</t>
+  </si>
+  <si>
+    <t>門松賢</t>
+  </si>
+  <si>
+    <t>篠﨑太郎</t>
+  </si>
+  <si>
+    <t>雪野満</t>
+  </si>
+  <si>
+    <t>鄭東孝</t>
+  </si>
+  <si>
+    <t>福島龍貴</t>
+  </si>
+  <si>
     <t>久冨木原健二</t>
   </si>
   <si>
-    <t>伊藤国秋</t>
-  </si>
-  <si>
-    <t>佐久間一也</t>
-  </si>
-  <si>
-    <t>佐川偲</t>
-  </si>
-  <si>
-    <t>先崎光</t>
+    <t>片山充哉</t>
   </si>
   <si>
     <t>入佐薫</t>
   </si>
   <si>
-    <t>勝俣敬寛</t>
-  </si>
-  <si>
-    <t>吉村梨沙</t>
-  </si>
-  <si>
-    <t>吉田博道</t>
-  </si>
-  <si>
     <t>吉田心慈</t>
   </si>
   <si>
@@ -73,186 +160,177 @@
     <t>小林佐紀子</t>
   </si>
   <si>
+    <t>福原誠一郎</t>
+  </si>
+  <si>
     <t>小西美沙子</t>
   </si>
   <si>
-    <t>岡村真伊</t>
-  </si>
-  <si>
-    <t>岩崎文美</t>
-  </si>
-  <si>
-    <t>川瀬咲</t>
-  </si>
-  <si>
-    <t>平井智大</t>
+    <t>本田美和子</t>
+  </si>
+  <si>
+    <t>松永崇宏</t>
+  </si>
+  <si>
+    <t>松浦友一</t>
+  </si>
+  <si>
+    <t>津山頌章</t>
+  </si>
+  <si>
+    <t>清水隆之</t>
+  </si>
+  <si>
+    <t>渡邉多代</t>
   </si>
   <si>
     <t>持丸貴生</t>
   </si>
   <si>
-    <t>星貴文</t>
-  </si>
-  <si>
-    <t>本田美和子</t>
-  </si>
-  <si>
-    <t>東條誠也</t>
-  </si>
-  <si>
-    <t>松原龍輔</t>
-  </si>
-  <si>
-    <t>松永崇宏</t>
-  </si>
-  <si>
-    <t>松浦友一</t>
-  </si>
-  <si>
     <t>林智史</t>
   </si>
   <si>
-    <t>津山頌章</t>
-  </si>
-  <si>
-    <t>清水隆之</t>
-  </si>
-  <si>
-    <t>渡邉多代</t>
-  </si>
-  <si>
-    <t>熊木聡美</t>
-  </si>
-  <si>
-    <t>片山充哉</t>
-  </si>
-  <si>
-    <t>石井真央</t>
-  </si>
-  <si>
-    <t>福井梓穂</t>
-  </si>
-  <si>
-    <t>福原誠一郎</t>
-  </si>
-  <si>
-    <t>福島龍貴</t>
-  </si>
-  <si>
-    <t>篠﨑太郎</t>
-  </si>
-  <si>
-    <t>籠尾壽哉</t>
-  </si>
-  <si>
-    <t>織部峻太郎</t>
-  </si>
-  <si>
-    <t>脇坂悠介</t>
-  </si>
-  <si>
-    <t>茅島敦人</t>
-  </si>
-  <si>
-    <t>藤村慶子</t>
-  </si>
-  <si>
-    <t>谷岡友則</t>
-  </si>
-  <si>
-    <t>鄭東孝</t>
-  </si>
-  <si>
-    <t>里見良輔</t>
-  </si>
-  <si>
-    <t>野上創生</t>
-  </si>
-  <si>
-    <t>鈴木勝也</t>
-  </si>
-  <si>
-    <t>鈴木徹志郎</t>
-  </si>
-  <si>
-    <t>長谷川華子</t>
-  </si>
-  <si>
-    <t>門松賢</t>
-  </si>
-  <si>
-    <t>雪野満</t>
-  </si>
-  <si>
-    <t>青木康浩</t>
-  </si>
-  <si>
-    <t>髙木菜々美</t>
-  </si>
-  <si>
     <t>8月6日 ,8月7日 ,8月8日 ,8月13日 ,8月14日 ,8月15日 ,8月20日 ,8月21日 ,8月22日 ,8月27日 ,8月28日 ,8月29日</t>
   </si>
   <si>
+    <t>8月3日 ,8月4日 ,8月4日 ,8月5日 ,8月6日 ,8月7日 ,8月8日 ,8月11日 ,8月12日 ,8月12日 ,8月13日 ,8月14日 ,8月15日 ,8月19日 ,8月20日 ,8月21日 ,8月22日 ,8月23日 ,8月24日 ,8月24日 ,8月25日 ,8月25日 ,8月26日 ,8月27日 ,8月28日 ,8月29日 ,8月30日 ,8月31日 ,8月31日</t>
+  </si>
+  <si>
+    <t>8月2日 ,8月3日 ,8月3日 ,8月4日 ,8月4日 ,8月5日 ,8月6日 ,8月7日 ,8月9日 ,8月10日 ,8月10日 ,8月11日 ,8月11日 ,8月12日 ,8月12日 ,8月13日 ,8月16日 ,8月17日 ,8月17日 ,8月18日 ,8月18日 ,8月19日 ,8月20日 ,8月21日 ,8月23日 ,8月24日 ,8月24日 ,8月25日 ,8月25日 ,8月26日 ,8月27日 ,8月28日 ,8月30日 ,8月31日 ,8月31日</t>
+  </si>
+  <si>
     <t>8月1日 ,8月2日 ,8月3日 ,8月4日 ,8月4日 ,8月5日 ,8月6日 ,8月8日 ,8月9日 ,8月10日 ,8月11日 ,8月11日 ,8月12日 ,8月12日 ,8月13日 ,8月15日 ,8月16日 ,8月19日 ,8月20日 ,8月22日 ,8月23日 ,8月26日 ,8月27日 ,8月29日 ,8月30日</t>
   </si>
   <si>
+    <t>8月1日 ,8月2日 ,8月3日 ,8月3日 ,8月4日 ,8月4日 ,8月6日 ,8月7日 ,8月8日 ,8月9日 ,8月11日 ,8月11日 ,8月12日 ,8月13日 ,8月14日 ,8月15日 ,8月16日 ,8月17日 ,8月17日 ,8月18日 ,8月18日 ,8月20日 ,8月21日 ,8月22日 ,8月23日 ,8月24日 ,8月24日 ,8月25日 ,8月25日 ,8月27日 ,8月28日 ,8月29日 ,8月30日</t>
+  </si>
+  <si>
+    <t>8月6日 ,8月13日</t>
+  </si>
+  <si>
+    <t>8月2日 ,8月9日 ,8月16日</t>
+  </si>
+  <si>
+    <t>8月3日 ,8月4日 ,8月17日 ,8月18日 ,8月31日</t>
+  </si>
+  <si>
     <t>8月2日 ,8月5日 ,8月16日 ,8月18日 ,8月18日 ,8月19日 ,8月26日</t>
   </si>
   <si>
-    <t>8月1日 ,8月2日 ,8月3日 ,8月3日 ,8月4日 ,8月4日 ,8月6日 ,8月7日 ,8月8日 ,8月9日 ,8月11日 ,8月11日 ,8月12日 ,8月13日 ,8月14日 ,8月15日 ,8月16日 ,8月17日 ,8月17日 ,8月18日 ,8月18日 ,8月20日 ,8月21日 ,8月22日 ,8月23日 ,8月24日 ,8月24日 ,8月25日 ,8月25日 ,8月27日 ,8月28日 ,8月29日 ,8月30日</t>
-  </si>
-  <si>
-    <t>8月2日 ,8月3日 ,8月3日 ,8月4日 ,8月4日 ,8月5日 ,8月6日 ,8月7日 ,8月9日 ,8月10日 ,8月10日 ,8月11日 ,8月11日 ,8月12日 ,8月12日 ,8月13日 ,8月16日 ,8月17日 ,8月17日 ,8月18日 ,8月18日 ,8月19日 ,8月20日 ,8月21日 ,8月23日 ,8月24日 ,8月24日 ,8月25日 ,8月25日 ,8月26日 ,8月27日 ,8月28日 ,8月30日 ,8月31日 ,8月31日</t>
+    <t>8月2日 ,8月3日 ,8月9日 ,8月10日 ,8月12日</t>
+  </si>
+  <si>
+    <t>8月1日 ,8月2日 ,8月3日 ,8月3日 ,8月4日 ,8月4日 ,8月5日 ,8月8日 ,8月9日 ,8月10日 ,8月10日 ,8月11日 ,8月11日 ,8月12日 ,8月12日 ,8月15日 ,8月22日 ,8月23日 ,8月26日 ,8月29日 ,8月30日</t>
   </si>
   <si>
     <t>8月1日 ,8月4日 ,8月5日 ,8月7日 ,8月8日 ,8月9日 ,8月26日 ,8月28日 ,8月29日 ,8月30日</t>
   </si>
   <si>
-    <t>8月1日 ,8月2日 ,8月3日 ,8月3日 ,8月4日 ,8月4日 ,8月5日 ,8月8日 ,8月9日 ,8月10日 ,8月10日 ,8月11日 ,8月11日 ,8月12日 ,8月12日 ,8月15日 ,8月22日 ,8月23日 ,8月26日 ,8月29日 ,8月30日</t>
-  </si>
-  <si>
-    <t>8月2日 ,8月3日 ,8月9日 ,8月10日 ,8月12日</t>
-  </si>
-  <si>
-    <t>8月3日 ,8月4日 ,8月17日 ,8月18日 ,8月31日</t>
-  </si>
-  <si>
-    <t>8月3日 ,8月4日 ,8月4日 ,8月5日 ,8月6日 ,8月7日 ,8月8日 ,8月11日 ,8月12日 ,8月12日 ,8月13日 ,8月14日 ,8月15日 ,8月19日 ,8月20日 ,8月21日 ,8月22日 ,8月23日 ,8月24日 ,8月24日 ,8月25日 ,8月25日 ,8月26日 ,8月27日 ,8月28日 ,8月29日 ,8月30日 ,8月31日 ,8月31日</t>
-  </si>
-  <si>
-    <t>8月2日 ,8月9日 ,8月16日</t>
-  </si>
-  <si>
-    <t>8月6日 ,8月13日</t>
+    <t>8月3日 ,8月3日 ,8月10日 ,8月10日 ,8月11日 ,8月11日 ,8月31日 ,8月31日</t>
+  </si>
+  <si>
+    <t>8月2日 ,8月3日 ,8月3日 ,8月4日 ,8月4日 ,8月9日 ,8月10日 ,8月10日 ,8月11日 ,8月11日 ,8月12日 ,8月12日 ,8月16日 ,8月17日 ,8月17日 ,8月18日 ,8月18日 ,8月23日 ,8月24日 ,8月24日 ,8月25日 ,8月25日 ,8月30日 ,8月31日 ,8月31日</t>
+  </si>
+  <si>
+    <t>8月1日 ,8月8日</t>
+  </si>
+  <si>
+    <t>8月27日 ,8月28日 ,8月29日 ,8月30日 ,8月31日 ,8月31日</t>
+  </si>
+  <si>
+    <t>8月10日 ,8月10日</t>
+  </si>
+  <si>
+    <t>8月10日 ,8月10日 ,8月11日 ,8月24日 ,8月24日 ,8月25日 ,8月25日 ,8月30日 ,8月31日 ,8月31日</t>
+  </si>
+  <si>
+    <t>8月31日</t>
+  </si>
+  <si>
+    <t>8月9日 ,8月10日 ,8月10日 ,8月11日 ,8月11日 ,8月12日 ,8月12日</t>
+  </si>
+  <si>
+    <t>8月1日 ,8月2日</t>
+  </si>
+  <si>
+    <t>8月1日 ,8月2日 ,8月3日 ,8月9日 ,8月10日 ,8月10日 ,8月11日 ,8月16日 ,8月17日 ,8月17日 ,8月18日 ,8月18日</t>
+  </si>
+  <si>
+    <t>8月1日 ,8月2日 ,8月3日 ,8月3日 ,8月4日 ,8月4日 ,8月5日 ,8月6日 ,8月7日 ,8月8日 ,8月9日 ,8月10日 ,8月10日 ,8月11日 ,8月11日 ,8月12日 ,8月12日 ,8月13日 ,8月14日 ,8月15日 ,8月16日 ,8月17日 ,8月17日 ,8月18日 ,8月18日 ,8月19日 ,8月20日 ,8月21日 ,8月22日 ,8月23日 ,8月24日 ,8月24日 ,8月25日 ,8月25日 ,8月26日 ,8月27日 ,8月28日 ,8月29日 ,8月30日 ,8月31日 ,8月31日</t>
+  </si>
+  <si>
+    <t>8月15日 ,8月16日 ,8月17日 ,8月17日 ,8月18日 ,8月18日 ,8月19日 ,8月20日</t>
+  </si>
+  <si>
+    <t>8月3日 ,8月3日 ,8月4日 ,8月4日 ,8月10日 ,8月10日 ,8月17日 ,8月17日 ,8月18日 ,8月18日 ,8月29日 ,8月30日 ,8月31日 ,8月31日</t>
+  </si>
+  <si>
+    <t>8月6日 ,8月21日 ,8月24日 ,8月24日 ,8月25日 ,8月25日 ,8月29日 ,8月30日 ,8月31日 ,8月31日</t>
+  </si>
+  <si>
+    <t>8月3日 ,8月6日 ,8月9日 ,8月10日 ,8月10日 ,8月11日 ,8月11日 ,8月12日 ,8月12日 ,8月13日 ,8月20日 ,8月21日 ,8月23日 ,8月24日 ,8月24日 ,8月25日 ,8月25日 ,8月27日 ,8月30日 ,8月31日 ,8月31日</t>
+  </si>
+  <si>
+    <t>8月1日 ,8月8日 ,8月14日 ,8月15日 ,8月22日 ,8月29日</t>
+  </si>
+  <si>
+    <t>8月2日 ,8月3日 ,8月3日 ,8月7日 ,8月9日 ,8月10日 ,8月10日 ,8月14日 ,8月16日 ,8月17日 ,8月17日 ,8月21日 ,8月23日 ,8月24日 ,8月24日 ,8月28日 ,8月30日 ,8月31日 ,8月31日</t>
+  </si>
+  <si>
+    <t>8月3日 ,8月7日 ,8月10日 ,8月14日 ,8月17日 ,8月17日 ,8月18日 ,8月18日 ,8月21日 ,8月24日 ,8月24日 ,8月25日 ,8月25日 ,8月28日 ,8月31日 ,8月31日</t>
+  </si>
+  <si>
+    <t>8月4日 ,8月9日 ,8月10日 ,8月10日 ,8月11日 ,8月11日 ,8月18日 ,8月18日 ,8月25日 ,8月25日</t>
+  </si>
+  <si>
+    <t>8月24日 ,8月24日 ,8月25日 ,8月25日 ,8月26日 ,8月27日 ,8月28日 ,8月29日 ,8月30日 ,8月31日 ,8月31日</t>
+  </si>
+  <si>
+    <t>8月5日 ,8月10日 ,8月10日 ,8月12日 ,8月19日 ,8月26日 ,8月31日 ,8月31日</t>
+  </si>
+  <si>
+    <t>8月16日 ,8月17日 ,8月17日</t>
+  </si>
+  <si>
+    <t>8月9日 ,8月10日 ,8月10日 ,8月11日 ,8月11日 ,8月12日 ,8月12日 ,8月16日 ,8月17日 ,8月17日 ,8月18日 ,8月18日 ,8月19日 ,8月23日 ,8月24日 ,8月24日 ,8月25日 ,8月25日 ,8月26日 ,8月30日 ,8月31日 ,8月31日</t>
+  </si>
+  <si>
+    <t>8月3日 ,8月7日 ,8月10日 ,8月11日 ,8月12日 ,8月12日 ,8月14日 ,8月17日 ,8月21日 ,8月24日 ,8月25日 ,8月25日 ,8月26日 ,8月28日 ,8月31日</t>
+  </si>
+  <si>
+    <t>8月1日 ,8月2日 ,8月3日 ,8月3日 ,8月4日 ,8月4日 ,8月9日 ,8月16日 ,8月23日 ,8月30日</t>
+  </si>
+  <si>
+    <t>8月2日 ,8月3日 ,8月5日 ,8月9日 ,8月10日 ,8月16日 ,8月17日 ,8月19日 ,8月23日 ,8月24日 ,8月26日 ,8月29日 ,8月30日 ,8月31日</t>
+  </si>
+  <si>
+    <t>8月1日 ,8月2日 ,8月3日 ,8月3日 ,8月4日 ,8月4日 ,8月5日 ,8月10日 ,8月10日 ,8月11日 ,8月11日 ,8月12日 ,8月12日 ,8月17日 ,8月17日 ,8月18日 ,8月18日 ,8月23日 ,8月24日 ,8月24日 ,8月25日 ,8月25日 ,8月31日 ,8月31日</t>
+  </si>
+  <si>
+    <t>8月1日 ,8月4日 ,8月4日 ,8月5日 ,8月8日 ,8月9日 ,8月15日 ,8月16日 ,8月17日 ,8月17日 ,8月18日 ,8月18日 ,8月22日 ,8月23日 ,8月24日 ,8月29日 ,8月30日 ,8月31日</t>
+  </si>
+  <si>
+    <t>8月10日 ,8月10日 ,8月11日 ,8月11日 ,8月12日 ,8月12日</t>
+  </si>
+  <si>
+    <t>8月16日 ,8月17日 ,8月23日 ,8月24日 ,8月30日 ,8月31日 ,8月31日</t>
+  </si>
+  <si>
+    <t>8月4日 ,8月6日 ,8月10日 ,8月10日 ,8月11日 ,8月11日 ,8月12日 ,8月12日 ,8月13日 ,8月18日 ,8月20日 ,8月25日 ,8月27日</t>
+  </si>
+  <si>
+    <t>8月2日 ,8月3日 ,8月3日 ,8月4日 ,8月4日 ,8月9日 ,8月10日 ,8月10日 ,8月11日 ,8月11日 ,8月12日 ,8月12日 ,8月16日 ,8月17日 ,8月17日 ,8月18日 ,8月18日 ,8月23日 ,8月24日 ,8月24日 ,8月25日 ,8月25日 ,8月29日 ,8月30日 ,8月31日 ,8月31日</t>
   </si>
   <si>
     <t>8月4日 ,8月4日 ,8月5日 ,8月7日 ,8月9日 ,8月10日 ,8月10日 ,8月11日 ,8月11日 ,8月12日 ,8月12日 ,8月14日 ,8月15日 ,8月16日 ,8月17日 ,8月17日 ,8月18日 ,8月18日 ,8月19日 ,8月21日 ,8月23日 ,8月24日 ,8月24日 ,8月26日 ,8月28日 ,8月31日 ,8月31日</t>
   </si>
   <si>
-    <t>8月2日 ,8月3日 ,8月3日 ,8月7日 ,8月9日 ,8月10日 ,8月10日 ,8月14日 ,8月16日 ,8月17日 ,8月17日 ,8月21日 ,8月23日 ,8月24日 ,8月24日 ,8月28日 ,8月30日 ,8月31日 ,8月31日</t>
-  </si>
-  <si>
-    <t>8月1日 ,8月8日</t>
-  </si>
-  <si>
-    <t>8月4日 ,8月9日 ,8月10日 ,8月10日 ,8月11日 ,8月11日 ,8月18日 ,8月18日 ,8月25日 ,8月25日</t>
-  </si>
-  <si>
-    <t>8月10日 ,8月10日</t>
+    <t>8月2日 ,8月3日 ,8月3日 ,8月4日 ,8月4日 ,8月5日 ,8月6日 ,8月7日 ,8月8日 ,8月9日 ,8月10日 ,8月10日 ,8月11日 ,8月11日 ,8月12日 ,8月12日 ,8月13日 ,8月20日 ,8月27日 ,8月30日 ,8月31日 ,8月31日</t>
   </si>
   <si>
     <t>8月1日 ,8月2日 ,8月3日 ,8月4日 ,8月4日 ,8月5日 ,8月6日 ,8月7日 ,8月8日 ,8月9日 ,8月10日 ,8月10日 ,8月11日 ,8月11日 ,8月12日 ,8月12日 ,8月13日 ,8月14日 ,8月15日 ,8月16日 ,8月17日 ,8月17日 ,8月18日 ,8月18日 ,8月19日 ,8月20日 ,8月21日 ,8月22日 ,8月23日 ,8月24日 ,8月25日 ,8月25日 ,8月26日 ,8月27日 ,8月28日 ,8月29日 ,8月30日 ,8月31日 ,8月31日</t>
   </si>
   <si>
-    <t>8月3日 ,8月7日 ,8月10日 ,8月14日 ,8月17日 ,8月17日 ,8月18日 ,8月18日 ,8月21日 ,8月24日 ,8月24日 ,8月25日 ,8月25日 ,8月28日 ,8月31日 ,8月31日</t>
-  </si>
-  <si>
-    <t>8月9日 ,8月10日 ,8月10日 ,8月11日 ,8月11日 ,8月12日 ,8月12日</t>
-  </si>
-  <si>
-    <t>8月6日 ,8月21日 ,8月24日 ,8月24日 ,8月25日 ,8月25日 ,8月29日 ,8月30日 ,8月31日 ,8月31日</t>
-  </si>
-  <si>
     <t>8月6日 ,8月7日 ,8月8日 ,8月9日 ,8月10日 ,8月10日 ,8月11日 ,8月11日 ,8月12日 ,8月12日 ,8月14日 ,8月17日 ,8月18日 ,8月18日 ,8月20日 ,8月21日 ,8月24日 ,8月25日 ,8月25日 ,8月28日 ,8月29日 ,8月30日 ,8月31日 ,8月31日</t>
   </si>
   <si>
@@ -268,114 +346,48 @@
     <t>8月2日 ,8月9日 ,8月15日 ,8月16日 ,8月17日 ,8月17日 ,8月18日 ,8月18日 ,8月19日 ,8月20日 ,8月21日 ,8月23日 ,8月30日</t>
   </si>
   <si>
-    <t>8月1日 ,8月2日 ,8月3日 ,8月3日 ,8月4日 ,8月4日 ,8月5日 ,8月6日 ,8月7日 ,8月8日 ,8月9日 ,8月10日 ,8月10日 ,8月11日 ,8月11日 ,8月12日 ,8月12日 ,8月13日 ,8月14日 ,8月15日 ,8月16日 ,8月17日 ,8月17日 ,8月18日 ,8月18日 ,8月19日 ,8月20日 ,8月21日 ,8月22日 ,8月23日 ,8月24日 ,8月24日 ,8月25日 ,8月25日 ,8月26日 ,8月27日 ,8月28日 ,8月29日 ,8月30日 ,8月31日 ,8月31日</t>
-  </si>
-  <si>
-    <t>8月31日</t>
-  </si>
-  <si>
-    <t>8月27日 ,8月28日 ,8月29日 ,8月30日 ,8月31日 ,8月31日</t>
-  </si>
-  <si>
-    <t>8月5日 ,8月10日 ,8月10日 ,8月12日 ,8月19日 ,8月26日 ,8月31日 ,8月31日</t>
-  </si>
-  <si>
-    <t>8月1日 ,8月8日 ,8月14日 ,8月15日 ,8月22日 ,8月29日</t>
+    <t>8月5日 ,8月6日 ,8月12日 ,8月13日 ,8月14日 ,8月15日 ,8月16日 ,8月17日 ,8月19日 ,8月20日 ,8月23日 ,8月24日 ,8月26日 ,8月27日</t>
+  </si>
+  <si>
+    <t>8月1日 ,8月2日 ,8月3日 ,8月3日 ,8月4日 ,8月4日 ,8月9日 ,8月10日 ,8月10日 ,8月11日 ,8月11日 ,8月12日 ,8月12日 ,8月17日 ,8月17日 ,8月18日 ,8月18日 ,8月22日 ,8月23日 ,8月24日 ,8月24日 ,8月25日 ,8月25日 ,8月30日 ,8月31日 ,8月31日</t>
+  </si>
+  <si>
+    <t>8月1日 ,8月3日 ,8月3日 ,8月4日 ,8月4日 ,8月7日 ,8月8日 ,8月10日 ,8月10日 ,8月11日 ,8月11日 ,8月12日 ,8月12日 ,8月14日 ,8月15日 ,8月17日 ,8月17日 ,8月18日 ,8月18日 ,8月21日 ,8月22日 ,8月24日 ,8月24日 ,8月25日 ,8月25日 ,8月28日 ,8月29日 ,8月31日 ,8月31日</t>
+  </si>
+  <si>
+    <t>8月3日 ,8月3日 ,8月4日 ,8月4日 ,8月7日 ,8月10日 ,8月10日 ,8月14日 ,8月18日 ,8月18日 ,8月19日 ,8月20日 ,8月21日 ,8月24日 ,8月24日 ,8月27日 ,8月28日 ,8月29日 ,8月31日 ,8月31日</t>
+  </si>
+  <si>
+    <t>8月6日 ,8月7日 ,8月13日 ,8月14日 ,8月16日 ,8月17日 ,8月17日 ,8月18日 ,8月18日 ,8月19日 ,8月20日 ,8月21日 ,8月24日 ,8月24日 ,8月25日 ,8月25日 ,8月27日 ,8月28日 ,8月31日 ,8月31日</t>
+  </si>
+  <si>
+    <t>8月3日 ,8月3日 ,8月4日 ,8月4日 ,8月7日 ,8月8日 ,8月10日 ,8月10日 ,8月11日 ,8月11日 ,8月12日 ,8月12日 ,8月14日 ,8月19日 ,8月21日 ,8月24日 ,8月24日 ,8月28日</t>
+  </si>
+  <si>
+    <t>8月2日 ,8月3日 ,8月3日 ,8月4日 ,8月4日</t>
   </si>
   <si>
     <t>8月2日 ,8月4日 ,8月4日 ,8月5日 ,8月6日 ,8月7日 ,8月9日 ,8月10日 ,8月10日 ,8月11日 ,8月11日 ,8月12日 ,8月12日 ,8月13日 ,8月14日 ,8月16日 ,8月17日 ,8月17日 ,8月18日 ,8月18日 ,8月19日 ,8月20日 ,8月21日 ,8月23日 ,8月25日 ,8月25日 ,8月26日 ,8月27日 ,8月28日 ,8月30日</t>
   </si>
   <si>
-    <t>8月24日 ,8月24日 ,8月25日 ,8月25日 ,8月26日 ,8月27日 ,8月28日 ,8月29日 ,8月30日 ,8月31日 ,8月31日</t>
-  </si>
-  <si>
-    <t>8月1日 ,8月2日 ,8月3日 ,8月3日 ,8月4日 ,8月4日 ,8月9日 ,8月10日 ,8月10日 ,8月11日 ,8月11日 ,8月12日 ,8月12日 ,8月17日 ,8月17日 ,8月18日 ,8月18日 ,8月22日 ,8月23日 ,8月24日 ,8月24日 ,8月25日 ,8月25日 ,8月30日 ,8月31日 ,8月31日</t>
-  </si>
-  <si>
-    <t>8月16日 ,8月17日 ,8月17日</t>
-  </si>
-  <si>
-    <t>8月15日 ,8月16日 ,8月17日 ,8月17日 ,8月18日 ,8月18日 ,8月19日 ,8月20日</t>
-  </si>
-  <si>
-    <t>8月1日 ,8月3日 ,8月3日 ,8月4日 ,8月4日 ,8月7日 ,8月8日 ,8月10日 ,8月10日 ,8月11日 ,8月11日 ,8月12日 ,8月12日 ,8月14日 ,8月15日 ,8月17日 ,8月17日 ,8月18日 ,8月18日 ,8月21日 ,8月22日 ,8月24日 ,8月24日 ,8月25日 ,8月25日 ,8月28日 ,8月29日 ,8月31日 ,8月31日</t>
-  </si>
-  <si>
-    <t>8月3日 ,8月3日 ,8月4日 ,8月4日 ,8月7日 ,8月10日 ,8月10日 ,8月14日 ,8月18日 ,8月18日 ,8月19日 ,8月20日 ,8月21日 ,8月24日 ,8月24日 ,8月27日 ,8月28日 ,8月29日 ,8月31日 ,8月31日</t>
-  </si>
-  <si>
     <t>8月2日 ,8月3日 ,8月3日 ,8月4日 ,8月13日 ,8月14日 ,8月15日 ,8月16日 ,8月17日 ,8月17日 ,8月18日 ,8月18日 ,8月24日 ,8月24日 ,8月25日 ,8月25日 ,8月31日 ,8月31日</t>
   </si>
   <si>
-    <t>8月6日 ,8月7日 ,8月13日 ,8月14日 ,8月16日 ,8月17日 ,8月17日 ,8月18日 ,8月18日 ,8月19日 ,8月20日 ,8月21日 ,8月24日 ,8月24日 ,8月25日 ,8月25日 ,8月27日 ,8月28日 ,8月31日 ,8月31日</t>
-  </si>
-  <si>
-    <t>8月3日 ,8月3日 ,8月4日 ,8月4日 ,8月7日 ,8月8日 ,8月10日 ,8月10日 ,8月11日 ,8月11日 ,8月12日 ,8月12日 ,8月14日 ,8月19日 ,8月21日 ,8月24日 ,8月24日 ,8月28日</t>
-  </si>
-  <si>
-    <t>8月2日 ,8月3日 ,8月3日 ,8月4日 ,8月4日</t>
-  </si>
-  <si>
-    <t>8月3日 ,8月3日 ,8月4日 ,8月4日 ,8月10日 ,8月10日 ,8月17日 ,8月17日 ,8月18日 ,8月18日 ,8月29日 ,8月30日 ,8月31日 ,8月31日</t>
-  </si>
-  <si>
-    <t>8月2日 ,8月3日 ,8月3日 ,8月4日 ,8月4日 ,8月5日 ,8月6日 ,8月7日 ,8月8日 ,8月9日 ,8月10日 ,8月10日 ,8月11日 ,8月11日 ,8月12日 ,8月12日 ,8月13日 ,8月20日 ,8月27日 ,8月30日 ,8月31日 ,8月31日</t>
-  </si>
-  <si>
-    <t>8月10日 ,8月10日 ,8月11日 ,8月24日 ,8月24日 ,8月25日 ,8月25日 ,8月30日 ,8月31日 ,8月31日</t>
-  </si>
-  <si>
-    <t>8月2日 ,8月3日 ,8月3日 ,8月4日 ,8月4日 ,8月9日 ,8月10日 ,8月10日 ,8月11日 ,8月11日 ,8月12日 ,8月12日 ,8月16日 ,8月17日 ,8月17日 ,8月18日 ,8月18日 ,8月23日 ,8月24日 ,8月24日 ,8月25日 ,8月25日 ,8月30日 ,8月31日 ,8月31日</t>
-  </si>
-  <si>
-    <t>8月5日 ,8月6日 ,8月12日 ,8月13日 ,8月14日 ,8月15日 ,8月16日 ,8月17日 ,8月19日 ,8月20日 ,8月23日 ,8月24日 ,8月26日 ,8月27日</t>
-  </si>
-  <si>
-    <t>8月4日 ,8月6日 ,8月10日 ,8月10日 ,8月11日 ,8月11日 ,8月12日 ,8月12日 ,8月13日 ,8月18日 ,8月20日 ,8月25日 ,8月27日</t>
-  </si>
-  <si>
-    <t>8月16日 ,8月17日 ,8月23日 ,8月24日 ,8月30日 ,8月31日 ,8月31日</t>
-  </si>
-  <si>
-    <t>8月3日 ,8月6日 ,8月9日 ,8月10日 ,8月10日 ,8月11日 ,8月11日 ,8月12日 ,8月12日 ,8月13日 ,8月20日 ,8月21日 ,8月23日 ,8月24日 ,8月24日 ,8月25日 ,8月25日 ,8月27日 ,8月30日 ,8月31日 ,8月31日</t>
-  </si>
-  <si>
-    <t>8月1日 ,8月4日 ,8月4日 ,8月5日 ,8月8日 ,8月9日 ,8月15日 ,8月16日 ,8月17日 ,8月17日 ,8月18日 ,8月18日 ,8月22日 ,8月23日 ,8月24日 ,8月29日 ,8月30日 ,8月31日</t>
-  </si>
-  <si>
-    <t>8月9日 ,8月10日 ,8月10日 ,8月11日 ,8月11日 ,8月12日 ,8月12日 ,8月16日 ,8月17日 ,8月17日 ,8月18日 ,8月18日 ,8月19日 ,8月23日 ,8月24日 ,8月24日 ,8月25日 ,8月25日 ,8月26日 ,8月30日 ,8月31日 ,8月31日</t>
-  </si>
-  <si>
-    <t>8月1日 ,8月2日 ,8月3日 ,8月3日 ,8月4日 ,8月4日 ,8月5日 ,8月10日 ,8月10日 ,8月11日 ,8月11日 ,8月12日 ,8月12日 ,8月17日 ,8月17日 ,8月18日 ,8月18日 ,8月23日 ,8月24日 ,8月24日 ,8月25日 ,8月25日 ,8月31日 ,8月31日</t>
-  </si>
-  <si>
-    <t>8月1日 ,8月2日</t>
-  </si>
-  <si>
-    <t>8月2日 ,8月3日 ,8月3日 ,8月4日 ,8月4日 ,8月9日 ,8月10日 ,8月10日 ,8月11日 ,8月11日 ,8月12日 ,8月12日 ,8月16日 ,8月17日 ,8月17日 ,8月18日 ,8月18日 ,8月23日 ,8月24日 ,8月24日 ,8月25日 ,8月25日 ,8月29日 ,8月30日 ,8月31日 ,8月31日</t>
-  </si>
-  <si>
-    <t>8月1日 ,8月2日 ,8月3日 ,8月3日 ,8月4日 ,8月4日 ,8月9日 ,8月16日 ,8月23日 ,8月30日</t>
-  </si>
-  <si>
-    <t>8月1日 ,8月2日 ,8月3日 ,8月9日 ,8月10日 ,8月10日 ,8月11日 ,8月16日 ,8月17日 ,8月17日 ,8月18日 ,8月18日</t>
-  </si>
-  <si>
-    <t>8月2日 ,8月3日 ,8月5日 ,8月9日 ,8月10日 ,8月16日 ,8月17日 ,8月19日 ,8月23日 ,8月24日 ,8月26日 ,8月29日 ,8月30日 ,8月31日</t>
-  </si>
-  <si>
-    <t>8月10日 ,8月10日 ,8月11日 ,8月11日 ,8月12日 ,8月12日</t>
-  </si>
-  <si>
-    <t>8月3日 ,8月7日 ,8月10日 ,8月11日 ,8月12日 ,8月12日 ,8月14日 ,8月17日 ,8月21日 ,8月24日 ,8月25日 ,8月25日 ,8月26日 ,8月28日 ,8月31日</t>
-  </si>
-  <si>
-    <t>8月3日 ,8月3日 ,8月10日 ,8月10日 ,8月11日 ,8月11日 ,8月31日 ,8月31日</t>
-  </si>
-  <si>
     <t>icu</t>
   </si>
   <si>
+    <t>8月18日　JMECC受講でシフトにないることできません。</t>
+  </si>
+  <si>
+    <t>水曜日は翌日外勤のため不可です</t>
+  </si>
+  <si>
+    <t>17日　学会、24日　研究会、31日　私用</t>
+  </si>
+  <si>
+    <t>8/3 日直→続けて8/3 夜間ICUができれば、お願いします。8/24日直の場合は、8/24 夜ICUを希望します。8/3 と8/24 と分けての対応はできず、申し訳ありません。</t>
+  </si>
+  <si>
     <t>8月15-21日夏季休暇、金曜午後外勤です。</t>
   </si>
   <si>
@@ -383,15 +395,6 @@
   </si>
   <si>
     <t>週末に担当できず、申し訳ありません。</t>
-  </si>
-  <si>
-    <t>17日　学会、24日　研究会、31日　私用</t>
-  </si>
-  <si>
-    <t>8月18日　JMECC受講でシフトにないることできません。</t>
-  </si>
-  <si>
-    <t>水曜日は翌日外勤のため不可です</t>
   </si>
 </sst>
 </file>
@@ -774,7 +777,7 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="1">
-        <v>0</v>
+        <v>52</v>
       </c>
       <c r="B2" t="s">
         <v>5</v>
@@ -788,7 +791,7 @@
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="1">
-        <v>1</v>
+        <v>33</v>
       </c>
       <c r="B3" t="s">
         <v>6</v>
@@ -816,7 +819,7 @@
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="1">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="B5" t="s">
         <v>8</v>
@@ -847,7 +850,7 @@
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="1">
-        <v>5</v>
+        <v>32</v>
       </c>
       <c r="B7" t="s">
         <v>10</v>
@@ -861,13 +864,10 @@
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="1">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="B8" t="s">
         <v>11</v>
-      </c>
-      <c r="C8" t="s">
-        <v>59</v>
       </c>
       <c r="D8" t="s">
         <v>76</v>
@@ -892,7 +892,7 @@
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="1">
-        <v>8</v>
+        <v>42</v>
       </c>
       <c r="B10" t="s">
         <v>13</v>
@@ -906,11 +906,14 @@
     </row>
     <row r="11" spans="1:6">
       <c r="A11" s="1">
-        <v>9</v>
+        <v>45</v>
       </c>
       <c r="B11" t="s">
         <v>14</v>
       </c>
+      <c r="C11" t="s">
+        <v>59</v>
+      </c>
       <c r="D11" t="s">
         <v>79</v>
       </c>
@@ -920,7 +923,7 @@
     </row>
     <row r="12" spans="1:6">
       <c r="A12" s="1">
-        <v>10</v>
+        <v>47</v>
       </c>
       <c r="B12" t="s">
         <v>15</v>
@@ -931,17 +934,17 @@
       <c r="E12" t="s">
         <v>119</v>
       </c>
+      <c r="F12" t="s">
+        <v>120</v>
+      </c>
     </row>
     <row r="13" spans="1:6">
       <c r="A13" s="1">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="B13" t="s">
         <v>16</v>
       </c>
-      <c r="C13" t="s">
-        <v>60</v>
-      </c>
       <c r="D13" t="s">
         <v>81</v>
       </c>
@@ -951,7 +954,7 @@
     </row>
     <row r="14" spans="1:6">
       <c r="A14" s="1">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="B14" t="s">
         <v>17</v>
@@ -965,7 +968,7 @@
     </row>
     <row r="15" spans="1:6">
       <c r="A15" s="1">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="B15" t="s">
         <v>18</v>
@@ -976,13 +979,10 @@
       <c r="E15" t="s">
         <v>119</v>
       </c>
-      <c r="F15" t="s">
-        <v>120</v>
-      </c>
     </row>
     <row r="16" spans="1:6">
       <c r="A16" s="1">
-        <v>14</v>
+        <v>38</v>
       </c>
       <c r="B16" t="s">
         <v>19</v>
@@ -993,17 +993,17 @@
       <c r="E16" t="s">
         <v>119</v>
       </c>
-      <c r="F16" t="s">
-        <v>121</v>
-      </c>
     </row>
     <row r="17" spans="1:6">
       <c r="A17" s="1">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B17" t="s">
         <v>20</v>
       </c>
+      <c r="C17" t="s">
+        <v>60</v>
+      </c>
       <c r="D17" t="s">
         <v>85</v>
       </c>
@@ -1013,7 +1013,7 @@
     </row>
     <row r="18" spans="1:6">
       <c r="A18" s="1">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="B18" t="s">
         <v>21</v>
@@ -1027,7 +1027,7 @@
     </row>
     <row r="19" spans="1:6">
       <c r="A19" s="1">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="B19" t="s">
         <v>22</v>
@@ -1044,14 +1044,11 @@
     </row>
     <row r="20" spans="1:6">
       <c r="A20" s="1">
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="B20" t="s">
         <v>23</v>
       </c>
-      <c r="C20" t="s">
-        <v>62</v>
-      </c>
       <c r="D20" t="s">
         <v>88</v>
       </c>
@@ -1061,7 +1058,7 @@
     </row>
     <row r="21" spans="1:6">
       <c r="A21" s="1">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B21" t="s">
         <v>24</v>
@@ -1075,11 +1072,14 @@
     </row>
     <row r="22" spans="1:6">
       <c r="A22" s="1">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B22" t="s">
         <v>25</v>
       </c>
+      <c r="C22" t="s">
+        <v>62</v>
+      </c>
       <c r="D22" t="s">
         <v>90</v>
       </c>
@@ -1089,7 +1089,7 @@
     </row>
     <row r="23" spans="1:6">
       <c r="A23" s="1">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B23" t="s">
         <v>26</v>
@@ -1100,13 +1100,10 @@
       <c r="E23" t="s">
         <v>119</v>
       </c>
-      <c r="F23" t="s">
-        <v>122</v>
-      </c>
     </row>
     <row r="24" spans="1:6">
       <c r="A24" s="1">
-        <v>22</v>
+        <v>40</v>
       </c>
       <c r="B24" t="s">
         <v>27</v>
@@ -1120,21 +1117,27 @@
     </row>
     <row r="25" spans="1:6">
       <c r="A25" s="1">
-        <v>23</v>
+        <v>51</v>
       </c>
       <c r="B25" t="s">
         <v>28</v>
       </c>
+      <c r="C25" t="s">
+        <v>63</v>
+      </c>
       <c r="D25" t="s">
         <v>93</v>
       </c>
       <c r="E25" t="s">
         <v>119</v>
       </c>
+      <c r="F25" t="s">
+        <v>121</v>
+      </c>
     </row>
     <row r="26" spans="1:6">
       <c r="A26" s="1">
-        <v>24</v>
+        <v>44</v>
       </c>
       <c r="B26" t="s">
         <v>29</v>
@@ -1148,7 +1151,7 @@
     </row>
     <row r="27" spans="1:6">
       <c r="A27" s="1">
-        <v>25</v>
+        <v>46</v>
       </c>
       <c r="B27" t="s">
         <v>30</v>
@@ -1162,14 +1165,11 @@
     </row>
     <row r="28" spans="1:6">
       <c r="A28" s="1">
-        <v>26</v>
+        <v>41</v>
       </c>
       <c r="B28" t="s">
         <v>31</v>
       </c>
-      <c r="C28" t="s">
-        <v>63</v>
-      </c>
       <c r="D28" t="s">
         <v>96</v>
       </c>
@@ -1179,14 +1179,11 @@
     </row>
     <row r="29" spans="1:6">
       <c r="A29" s="1">
-        <v>27</v>
+        <v>39</v>
       </c>
       <c r="B29" t="s">
         <v>32</v>
       </c>
-      <c r="C29" t="s">
-        <v>64</v>
-      </c>
       <c r="D29" t="s">
         <v>97</v>
       </c>
@@ -1196,7 +1193,7 @@
     </row>
     <row r="30" spans="1:6">
       <c r="A30" s="1">
-        <v>28</v>
+        <v>48</v>
       </c>
       <c r="B30" t="s">
         <v>33</v>
@@ -1210,7 +1207,7 @@
     </row>
     <row r="31" spans="1:6">
       <c r="A31" s="1">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="B31" t="s">
         <v>34</v>
@@ -1221,16 +1218,19 @@
       <c r="E31" t="s">
         <v>119</v>
       </c>
+      <c r="F31" t="s">
+        <v>122</v>
+      </c>
     </row>
     <row r="32" spans="1:6">
       <c r="A32" s="1">
-        <v>30</v>
+        <v>49</v>
       </c>
       <c r="B32" t="s">
         <v>35</v>
       </c>
       <c r="D32" t="s">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="E32" t="s">
         <v>119</v>
@@ -1238,13 +1238,13 @@
     </row>
     <row r="33" spans="1:6">
       <c r="A33" s="1">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="B33" t="s">
         <v>36</v>
       </c>
       <c r="D33" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E33" t="s">
         <v>119</v>
@@ -1252,13 +1252,13 @@
     </row>
     <row r="34" spans="1:6">
       <c r="A34" s="1">
-        <v>32</v>
+        <v>50</v>
       </c>
       <c r="B34" t="s">
         <v>37</v>
       </c>
-      <c r="D34" t="s">
-        <v>102</v>
+      <c r="C34" t="s">
+        <v>64</v>
       </c>
       <c r="E34" t="s">
         <v>119</v>
@@ -1266,13 +1266,13 @@
     </row>
     <row r="35" spans="1:6">
       <c r="A35" s="1">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="B35" t="s">
         <v>38</v>
       </c>
       <c r="D35" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="E35" t="s">
         <v>119</v>
@@ -1280,7 +1280,7 @@
     </row>
     <row r="36" spans="1:6">
       <c r="A36" s="1">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B36" t="s">
         <v>39</v>
@@ -1288,22 +1288,19 @@
       <c r="C36" t="s">
         <v>65</v>
       </c>
-      <c r="D36" t="s">
-        <v>104</v>
-      </c>
       <c r="E36" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="37" spans="1:6">
       <c r="A37" s="1">
-        <v>35</v>
+        <v>0</v>
       </c>
       <c r="B37" t="s">
         <v>40</v>
       </c>
-      <c r="C37" t="s">
-        <v>66</v>
+      <c r="D37" t="s">
+        <v>102</v>
       </c>
       <c r="E37" t="s">
         <v>119</v>
@@ -1311,13 +1308,13 @@
     </row>
     <row r="38" spans="1:6">
       <c r="A38" s="1">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="B38" t="s">
         <v>41</v>
       </c>
       <c r="D38" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="E38" t="s">
         <v>119</v>
@@ -1325,13 +1322,13 @@
     </row>
     <row r="39" spans="1:6">
       <c r="A39" s="1">
-        <v>37</v>
+        <v>5</v>
       </c>
       <c r="B39" t="s">
         <v>42</v>
       </c>
       <c r="D39" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="E39" t="s">
         <v>119</v>
@@ -1342,13 +1339,13 @@
     </row>
     <row r="40" spans="1:6">
       <c r="A40" s="1">
-        <v>38</v>
+        <v>9</v>
       </c>
       <c r="B40" t="s">
         <v>43</v>
       </c>
       <c r="D40" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="E40" t="s">
         <v>119</v>
@@ -1356,13 +1353,13 @@
     </row>
     <row r="41" spans="1:6">
       <c r="A41" s="1">
-        <v>39</v>
+        <v>10</v>
       </c>
       <c r="B41" t="s">
         <v>44</v>
       </c>
       <c r="D41" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="E41" t="s">
         <v>119</v>
@@ -1370,13 +1367,16 @@
     </row>
     <row r="42" spans="1:6">
       <c r="A42" s="1">
-        <v>40</v>
+        <v>11</v>
       </c>
       <c r="B42" t="s">
         <v>45</v>
       </c>
+      <c r="C42" t="s">
+        <v>66</v>
+      </c>
       <c r="D42" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="E42" t="s">
         <v>119</v>
@@ -1384,13 +1384,13 @@
     </row>
     <row r="43" spans="1:6">
       <c r="A43" s="1">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="B43" t="s">
         <v>46</v>
       </c>
       <c r="D43" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="E43" t="s">
         <v>119</v>
@@ -1398,27 +1398,33 @@
     </row>
     <row r="44" spans="1:6">
       <c r="A44" s="1">
-        <v>42</v>
+        <v>13</v>
       </c>
       <c r="B44" t="s">
         <v>47</v>
       </c>
       <c r="D44" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="E44" t="s">
         <v>119</v>
+      </c>
+      <c r="F44" t="s">
+        <v>124</v>
       </c>
     </row>
     <row r="45" spans="1:6">
       <c r="A45" s="1">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="B45" t="s">
         <v>48</v>
       </c>
+      <c r="C45" t="s">
+        <v>67</v>
+      </c>
       <c r="D45" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="E45" t="s">
         <v>119</v>
@@ -1426,134 +1432,134 @@
     </row>
     <row r="46" spans="1:6">
       <c r="A46" s="1">
-        <v>44</v>
+        <v>14</v>
       </c>
       <c r="B46" t="s">
         <v>49</v>
       </c>
       <c r="D46" t="s">
-        <v>113</v>
+        <v>80</v>
       </c>
       <c r="E46" t="s">
         <v>119</v>
+      </c>
+      <c r="F46" t="s">
+        <v>125</v>
       </c>
     </row>
     <row r="47" spans="1:6">
       <c r="A47" s="1">
-        <v>45</v>
+        <v>21</v>
       </c>
       <c r="B47" t="s">
         <v>50</v>
       </c>
-      <c r="C47" t="s">
-        <v>67</v>
-      </c>
       <c r="D47" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="E47" t="s">
         <v>119</v>
+      </c>
+      <c r="F47" t="s">
+        <v>126</v>
       </c>
     </row>
     <row r="48" spans="1:6">
       <c r="A48" s="1">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="B48" t="s">
         <v>51</v>
       </c>
       <c r="D48" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="E48" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="49" spans="1:6">
+    <row r="49" spans="1:5">
       <c r="A49" s="1">
-        <v>47</v>
+        <v>25</v>
       </c>
       <c r="B49" t="s">
         <v>52</v>
       </c>
       <c r="D49" t="s">
-        <v>84</v>
+        <v>113</v>
       </c>
       <c r="E49" t="s">
         <v>119</v>
       </c>
-      <c r="F49" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6">
+    </row>
+    <row r="50" spans="1:5">
       <c r="A50" s="1">
-        <v>48</v>
+        <v>27</v>
       </c>
       <c r="B50" t="s">
         <v>53</v>
       </c>
+      <c r="C50" t="s">
+        <v>68</v>
+      </c>
       <c r="D50" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="E50" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="51" spans="1:6">
+    <row r="51" spans="1:5">
       <c r="A51" s="1">
-        <v>49</v>
+        <v>28</v>
       </c>
       <c r="B51" t="s">
         <v>54</v>
       </c>
       <c r="D51" t="s">
-        <v>84</v>
+        <v>115</v>
       </c>
       <c r="E51" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="52" spans="1:6">
+    <row r="52" spans="1:5">
       <c r="A52" s="1">
-        <v>50</v>
+        <v>29</v>
       </c>
       <c r="B52" t="s">
         <v>55</v>
       </c>
-      <c r="C52" t="s">
-        <v>68</v>
+      <c r="D52" t="s">
+        <v>116</v>
       </c>
       <c r="E52" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="53" spans="1:6">
+    <row r="53" spans="1:5">
       <c r="A53" s="1">
-        <v>51</v>
+        <v>19</v>
       </c>
       <c r="B53" t="s">
         <v>56</v>
       </c>
-      <c r="C53" t="s">
-        <v>69</v>
-      </c>
       <c r="D53" t="s">
         <v>117</v>
       </c>
       <c r="E53" t="s">
         <v>119</v>
       </c>
-      <c r="F53" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6">
+    </row>
+    <row r="54" spans="1:5">
       <c r="A54" s="1">
-        <v>52</v>
+        <v>26</v>
       </c>
       <c r="B54" t="s">
         <v>57</v>
+      </c>
+      <c r="C54" t="s">
+        <v>69</v>
       </c>
       <c r="D54" t="s">
         <v>118</v>
